--- a/biology/Botanique/Neea/Neea.xlsx
+++ b/biology/Botanique/Neea/Neea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neea est un genre de plantes de la famille des Nyctaginaceae originaire des Caraïbes, d'Amérique centrale et d' Amérique du sud. Les espèces de ce genre sont communément appelées Nia, Neea, ou saltwood.
-La dénomination de ce genre a été faite par José Pavón et Hipólito Ruiz en honneur de Luis Née, un botaniste de l'Expédition Malaspina[1],[2].
-Il a été en premier décrit et publié dans Fl. Peruv. Prodr. à la page 52 en 1794[3].
-Le genre Neea est originaire de Belize, de Bolivie, du Brésil, de Colombie, du Costa Rica, de Cuba, de la République dominicaine, de l'Equateur, du Salvador, de la Guyane française, du Guatemala, de la Guyane, de Haïti, du Honduras, de la Jamaïque, des iles Leeward, du Mexique, du Nicaragua, de Panamá, du Paraguay, du Pérou, de Puerto Rico, du sud ouest des Caraïbes, de Suriname, du Venezuela et des Antilles[3].
+La dénomination de ce genre a été faite par José Pavón et Hipólito Ruiz en honneur de Luis Née, un botaniste de l'Expédition Malaspina,.
+Il a été en premier décrit et publié dans Fl. Peruv. Prodr. à la page 52 en 1794.
+Le genre Neea est originaire de Belize, de Bolivie, du Brésil, de Colombie, du Costa Rica, de Cuba, de la République dominicaine, de l'Equateur, du Salvador, de la Guyane française, du Guatemala, de la Guyane, de Haïti, du Honduras, de la Jamaïque, des iles Leeward, du Mexique, du Nicaragua, de Panamá, du Paraguay, du Pérou, de Puerto Rico, du sud ouest des Caraïbes, de Suriname, du Venezuela et des Antilles.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(cette liste est peut-être incomplète):
 Neea acuminatissima, Standl.  see Neea amplifolia
